--- a/biology/Botanique/Hoodia/Hoodia.xlsx
+++ b/biology/Botanique/Hoodia/Hoodia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hoodia est un genre de plante à fleurs la famille des Apocynacées. Il fait partie des genres qui formaient précédemment la famille des Asclépiadacées. Il comprend une douzaine d'espèces.
 Les plantes présentent des tiges succulentes qui peuvent atteindre un mètre de haut. Elles forment en général des touffes de tiges cactiformes succulentes et épineuses sur lesquelles se développent de grandes fleurs en forme de soucoupes de couleur rose ou brun-chair selon les espèces.
@@ -514,9 +526,11 @@
           <t>Utilisation médicale</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hoodia gordonii est connu pour être un coupe-faim naturel[1]. C'est une plante convoitée par certains laboratoires pharmaceutiques, qui aimeraient breveter son utilisation[2] mais les autorités locales tentent d'éviter tout acte de biopiraterie.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hoodia gordonii est connu pour être un coupe-faim naturel. C'est une plante convoitée par certains laboratoires pharmaceutiques, qui aimeraient breveter son utilisation mais les autorités locales tentent d'éviter tout acte de biopiraterie.
 Dans l'Union européenne, cette plante est considérée comme un nouvel aliment au sens du règlement (CE) no 258/97 relatif aux nouveaux aliments et nouveaux ingrédients alimentaires. Elle doit faire l'objet d'une autorisation avant de pouvoir être mise sur le marché. Aucune autorisation n'ayant été délivrée, elle ne peut pas être commercialisée en tant que denrée alimentaire ni en tant que complément alimentaire.
 </t>
         </is>
@@ -546,7 +560,9 @@
           <t>Principales espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Hoodia alstonii (N.E.Br.) Plowes originaire de Namibie et d'Afrique du Sud
 Hoodia currorii
